--- a/medicine/Handicap/Barfi!/Barfi!.xlsx
+++ b/medicine/Handicap/Barfi!/Barfi!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barfi! (बर्फी!) est une comédie dramatique indienne réalisée par Anurag Basu, sortie en 2012.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action se déroule à Darjeeling. Murphy, surnommé Barfi (Ranbir Kapoor), est un jeune sourd-muet réputé pour ses farces. Le film relate ses relations avec la belle Shruti (Ileana D'Cruz), et Jhilmil (Priyanka Chopra), une jeune autiste. L'irruption de ces deux jeunes femmes déclenche une série d’événements qui met la vie du trio sens dessus dessous.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : बर्फी!
@@ -566,7 +582,7 @@
 Durée : 151 minutes
 Dates de sortie :
 Inde : 14 septembre 2012
-France : 1er novembre 2018[1] (Netflix)</t>
+France : 1er novembre 2018 (Netflix)</t>
         </is>
       </c>
     </row>
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ranbir Kapoor : Murphy « Barfi » Johnson
 Priyanka Chopra : Jhilmil Chatterjee
@@ -637,18 +655,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-À l'origine, le film avait pour titre provisoire Khamoshi[2] , puis Silence[3].
-Attribution
-En mars 2010, Anurag Basu raconte, dans une interview pour The Times of India, avoir choisi Ranbir Kapoor et Katrina Kaif dans le rôle de la narratrice[2],[3], avant que cette dernière ne quitte le projet pour de raisons inconnues[4]. 
-Tournage
-Le tournage devait commencer en 2010, mais l'acteur Ranbir Kapoor était encore en tournage de Rockstar (2011) d'Imtiaz Ali[3].
-Il commence le 20 mars 2011, à Bombay, jusqu'au mai[3]. Entre juin et février 2012, l'équipe de la production se rend à Darjeeling[5],[6] pour les villages de Sukna (en) et de Tindharia (en), ainsi que le parc public de Chowrasta (en), la gare ferroviaire de Ghum et l'hôtel Windamere[7]. En décembre, il tourne quelques scènes en périphérie de Coimbatore, surtout Pollachi et Ooty[8].
-Fin janvier 2012, il se poursuit à Calcutta — où le personnage, Barfi, est poursuivi par des policiers sur les toits[9].
-Les prises de vues prennent fin en avril[10],[11].
-Musique
-La bande originale est composée par Pritam Chakrabortya. Elle comprend sept chansons, deux reprises, un redux et une chanson solo, écrites par Swanand Kirkire, Neelesh Misra, Ashish Pandit et Sayeed Quadri. Elles sont chantées, pour la plupart, par le  chanteur Nikhil Paul George, accompagné par d'autres interprètes dont Mohit Chauhan, Shreya Ghoshal, et Ranbir Kapoor, qui y apparaissent également.
-Elle a été influencée par la bossa nova brésilienne. L'actrice Priyanka Chopra était pressentie pour chanter une chanson pour le film, mais son contrat avec Universal Music Group l'a empêchée de se saisir l'occasion[12]. L'album contient également une chanson intitulée Fatafati, interprétée par Pritam Chakrabortya, qui n'a pas été utilisée dans le film, mais qui a été publiée en tant que single promotionnel sur YouTube, ajoutée le 10 septembre 2012. Certains chants supplémentaires sont chantés par l'acteur Ranbir Kapoor. Fatafati contient également des paroles en bengali écrites par Amitabh Bhattacharya.
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, le film avait pour titre provisoire Khamoshi , puis Silence.
 </t>
         </is>
       </c>
@@ -674,12 +687,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le film est sélectionné pour représenter l'Inde à la cérémonie des Oscars en 2013, mais n'a pas été nommé pour l'Oscar du meilleur film en langue étrangère[13].
+          <t>Attribution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2010, Anurag Basu raconte, dans une interview pour The Times of India, avoir choisi Ranbir Kapoor et Katrina Kaif dans le rôle de la narratrice avant que cette dernière ne quitte le projet pour de raisons inconnues. 
 </t>
         </is>
       </c>
@@ -705,10 +724,123 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage devait commencer en 2010, mais l'acteur Ranbir Kapoor était encore en tournage de Rockstar (2011) d'Imtiaz Ali.
+Il commence le 20 mars 2011, à Bombay, jusqu'au mai. Entre juin et février 2012, l'équipe de la production se rend à Darjeeling, pour les villages de Sukna (en) et de Tindharia (en), ainsi que le parc public de Chowrasta (en), la gare ferroviaire de Ghum et l'hôtel Windamere. En décembre, il tourne quelques scènes en périphérie de Coimbatore, surtout Pollachi et Ooty.
+Fin janvier 2012, il se poursuit à Calcutta — où le personnage, Barfi, est poursuivi par des policiers sur les toits.
+Les prises de vues prennent fin en avril,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Barfi!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barfi!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale est composée par Pritam Chakrabortya. Elle comprend sept chansons, deux reprises, un redux et une chanson solo, écrites par Swanand Kirkire, Neelesh Misra, Ashish Pandit et Sayeed Quadri. Elles sont chantées, pour la plupart, par le  chanteur Nikhil Paul George, accompagné par d'autres interprètes dont Mohit Chauhan, Shreya Ghoshal, et Ranbir Kapoor, qui y apparaissent également.
+Elle a été influencée par la bossa nova brésilienne. L'actrice Priyanka Chopra était pressentie pour chanter une chanson pour le film, mais son contrat avec Universal Music Group l'a empêchée de se saisir l'occasion. L'album contient également une chanson intitulée Fatafati, interprétée par Pritam Chakrabortya, qui n'a pas été utilisée dans le film, mais qui a été publiée en tant que single promotionnel sur YouTube, ajoutée le 10 septembre 2012. Certains chants supplémentaires sont chantés par l'acteur Ranbir Kapoor. Fatafati contient également des paroles en bengali écrites par Amitabh Bhattacharya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Barfi!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barfi!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est sélectionné pour représenter l'Inde à la cérémonie des Oscars en 2013, mais n'a pas été nommé pour l'Oscar du meilleur film en langue étrangère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barfi!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barfi!</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
